--- a/DataFrame.xlsx
+++ b/DataFrame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DPR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EPA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SDV</t>
         </is>
@@ -452,277 +462,952 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1477</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.33</v>
+        <v>1318</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Issaquah Robotics Society</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>28.14093125175584</v>
+        <v>0.82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.44</v>
+        <v>1425</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Error Code Xero</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>28.14193236233822</v>
+        <v>0.37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1678</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.37</v>
+        <v>1540</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Flaming Chickens</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>28.15995485669081</v>
+        <v>0.08</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1690</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
+        <v>1595</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Dragons</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>28.14260996346207</v>
+        <v>0.28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2056</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
+        <v>1778</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chill Out</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>28.17342037374156</v>
+        <v>0.62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>254</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.65</v>
+        <v>1899</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saints Robotics</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>28.09895826459685</v>
+        <v>0.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2590</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3</v>
+        <v>1983</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Skunk Works Robotics</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>28.15759458831667</v>
+        <v>0.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>294</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.65</v>
+        <v>2046</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bear Metal</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>28.09895826459685</v>
+        <v>0.43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3061</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.33</v>
+        <v>2412</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Robototes</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>28.14093125175584</v>
+        <v>0.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>321</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+        <v>2471</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Team Mean Machine</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>28.14260996346207</v>
+        <v>0.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4206</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.37</v>
+        <v>2521</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SERT</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>28.15995485669081</v>
+        <v>0.57</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4476</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.3</v>
+        <v>2522</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Royal Robotics</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>28.15759458831667</v>
+        <v>0.61</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4481</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.41</v>
+        <v>2557</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SOTAbots</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>28.14328570957671</v>
+        <v>0.78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4522</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
+        <v>2635</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lake Monsters</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>28.14260996346207</v>
+        <v>0.33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4613</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.37</v>
+        <v>2811</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>StormBots</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>28.15995485669081</v>
+        <v>0.67</v>
+      </c>
+      <c r="D16" t="n">
+        <v>36.68</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5813</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.33</v>
+        <v>2910</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jack in the Bot</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>28.14093125175584</v>
+        <v>0.57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>604</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.32</v>
+        <v>2926</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Robo Sparks</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>28.15360861570715</v>
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6328</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.41</v>
+        <v>2928</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Viking Robotics</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>28.14328570957671</v>
+        <v>0.38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7028</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.3</v>
+        <v>2930</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sonic Squirrels</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>28.15759458831667</v>
+        <v>0.72</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7558</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.06</v>
+        <v>2980</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Whidbey Island Wildcats</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>28.14947828036588</v>
+        <v>0.83</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>78</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.32</v>
+        <v>3070</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Team Pronto 3070</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>28.15360861570715</v>
+        <v>0.37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9072</v>
-      </c>
-      <c r="B23" t="n">
+        <v>3218</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Panther Robotics</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>0.41</v>
       </c>
-      <c r="C23" t="n">
-        <v>28.14328570957671</v>
+      <c r="D23" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9483</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.32</v>
+        <v>360</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The Revolution</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>28.15360861570715</v>
+        <v>0.45</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>987</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
+        <v>3663</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CPR - Cedar Park Robotics</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>28.17342037374156</v>
+        <v>0.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1323</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.65</v>
+        <v>3674</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CloverBots</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>28.09895826459685</v>
+        <v>0.48</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3712</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RoboCats</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3826</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sequim Robotics Federation "SRF"</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3876</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mabton LugNutz</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4043</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NerdHerd</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4131</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iron Patriots</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4180</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iron Riders</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4450</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Olympia Robotics Federation</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D34" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4469</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R.A.I.D. (Raider Artificial Intelligence Division)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4488</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Shockwave</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D36" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4682</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CyBears</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D37" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>488</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Team XBOT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D38" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>492</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Titan Robotics Club</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D39" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5827</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Code Purple</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Steel Ridge Robotics</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D41" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6443</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AEMBOT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D42" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6831</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>A-05 Annex</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7034</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2B Determined</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8032</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Redshift</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D45" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E45" t="n">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9023</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Future Martians</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D46" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="E46" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9036</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ramen Robotics</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9430</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CTEC Robotics</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9442</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Miso Mechanics</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9446</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>C Cubed</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D50" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pack of Parts</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.33</v>
       </c>
     </row>
   </sheetData>

--- a/DataFrame.xlsx
+++ b/DataFrame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>DPR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>EPA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SDV</t>
         </is>
@@ -464,950 +459,700 @@
       <c r="A2" t="n">
         <v>1318</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Issaquah Robotics Society</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.38</v>
       </c>
       <c r="C2" t="n">
-        <v>0.82</v>
+        <v>61.15</v>
       </c>
       <c r="D2" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.84</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1425</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Error Code Xero</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.44</v>
       </c>
       <c r="C3" t="n">
-        <v>0.37</v>
+        <v>47.78</v>
       </c>
       <c r="D3" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.71</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1540</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Flaming Chickens</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.26</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08</v>
+        <v>47.53</v>
       </c>
       <c r="D4" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.93</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1595</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The Dragons</t>
-        </is>
+        <v>1778</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.85</v>
       </c>
       <c r="C5" t="n">
-        <v>0.28</v>
+        <v>43.1</v>
       </c>
       <c r="D5" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.78</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1778</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chill Out</t>
-        </is>
+        <v>1899</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.78</v>
       </c>
       <c r="C6" t="n">
-        <v>0.62</v>
+        <v>39.28</v>
       </c>
       <c r="D6" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.38</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1899</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Saints Robotics</t>
-        </is>
+        <v>1983</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.78</v>
       </c>
       <c r="C7" t="n">
-        <v>0.77</v>
+        <v>41.46</v>
       </c>
       <c r="D7" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="E7" t="n">
-        <v>18.96</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Skunk Works Robotics</t>
-        </is>
+        <v>2046</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.52</v>
       </c>
       <c r="C8" t="n">
-        <v>0.33</v>
+        <v>66.08</v>
       </c>
       <c r="D8" t="n">
-        <v>27.05</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2046</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bear Metal</t>
-        </is>
+        <v>2147</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.66</v>
       </c>
       <c r="C9" t="n">
-        <v>0.43</v>
+        <v>51.15</v>
       </c>
       <c r="D9" t="n">
-        <v>40.45</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.77</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2412</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Robototes</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6</v>
+        <v>47.06</v>
       </c>
       <c r="D10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.49</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2471</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Team Mean Machine</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0.7</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3</v>
+        <v>43.05</v>
       </c>
       <c r="D11" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.91</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2521</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SERT</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0.13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.57</v>
+        <v>61.41</v>
       </c>
       <c r="D12" t="n">
-        <v>42.09</v>
-      </c>
-      <c r="E12" t="n">
-        <v>18.17</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2522</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Royal Robotics</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0.39</v>
       </c>
       <c r="C13" t="n">
-        <v>0.61</v>
+        <v>40.85</v>
       </c>
       <c r="D13" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15.38</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2557</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SOTAbots</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0.52</v>
       </c>
       <c r="C14" t="n">
-        <v>0.78</v>
+        <v>29.39</v>
       </c>
       <c r="D14" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.380000000000001</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2635</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Lake Monsters</t>
-        </is>
+        <v>2811</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.33</v>
+        <v>50.72</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.36</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2811</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>StormBots</t>
-        </is>
+        <v>2910</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.51</v>
       </c>
       <c r="C16" t="n">
-        <v>0.67</v>
+        <v>74.02</v>
       </c>
       <c r="D16" t="n">
-        <v>36.68</v>
-      </c>
-      <c r="E16" t="n">
-        <v>17.71</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2910</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Jack in the Bot</t>
-        </is>
+        <v>2930</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.43</v>
       </c>
       <c r="C17" t="n">
-        <v>0.57</v>
+        <v>56.47</v>
       </c>
       <c r="D17" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.390000000000001</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2926</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Robo Sparks</t>
-        </is>
+        <v>2980</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.49</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>23.74</v>
       </c>
       <c r="D18" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17.01</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2928</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Viking Robotics</t>
-        </is>
+        <v>2990</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.44</v>
       </c>
       <c r="C19" t="n">
-        <v>0.38</v>
+        <v>49.83</v>
       </c>
       <c r="D19" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13.8</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2930</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sonic Squirrels</t>
-        </is>
+        <v>3070</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.72</v>
+        <v>37.43</v>
       </c>
       <c r="D20" t="n">
-        <v>32.34</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.34</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2980</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Whidbey Island Wildcats</t>
-        </is>
+        <v>3218</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.24</v>
       </c>
       <c r="C21" t="n">
-        <v>0.83</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15.25</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3070</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Team Pronto 3070</t>
-        </is>
+        <v>360</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.37</v>
+        <v>47.87</v>
       </c>
       <c r="D22" t="n">
-        <v>37.17</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12.87</v>
+        <v>19.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3218</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Panther Robotics</t>
-        </is>
+        <v>3636</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.39</v>
       </c>
       <c r="C23" t="n">
-        <v>0.41</v>
+        <v>50.19</v>
       </c>
       <c r="D23" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="E23" t="n">
-        <v>15.39</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>360</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>The Revolution</t>
-        </is>
+        <v>3663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.68</v>
       </c>
       <c r="C24" t="n">
-        <v>0.45</v>
+        <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>30.98</v>
-      </c>
-      <c r="E24" t="n">
-        <v>13.38</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3663</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CPR - Cedar Park Robotics</t>
-        </is>
+        <v>3674</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.28</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3</v>
+        <v>40.36</v>
       </c>
       <c r="D25" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12.87</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CloverBots</t>
-        </is>
+        <v>3711</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.47</v>
       </c>
       <c r="C26" t="n">
-        <v>0.48</v>
+        <v>40.63</v>
       </c>
       <c r="D26" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11.41</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3712</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>RoboCats</t>
-        </is>
+        <v>4061</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9</v>
+        <v>35.56</v>
       </c>
       <c r="D27" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="E27" t="n">
-        <v>11.85</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3826</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sequim Robotics Federation "SRF"</t>
-        </is>
+        <v>4125</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6899999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.48</v>
+        <v>21.22</v>
       </c>
       <c r="D28" t="n">
-        <v>19.02</v>
-      </c>
-      <c r="E28" t="n">
-        <v>15.07</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3876</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Mabton LugNutz</t>
-        </is>
+        <v>4131</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.31</v>
+        <v>48.03</v>
       </c>
       <c r="D29" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.380000000000001</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4043</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>NerdHerd</t>
-        </is>
+        <v>4469</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.16</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7</v>
+        <v>40.17</v>
       </c>
       <c r="D30" t="n">
-        <v>37.18</v>
-      </c>
-      <c r="E30" t="n">
-        <v>17.14</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4125</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Confidential</t>
-        </is>
+        <v>4488</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.64</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5600000000000001</v>
+        <v>33.9</v>
       </c>
       <c r="D31" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7.65</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4131</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Iron Patriots</t>
-        </is>
+        <v>4682</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.23</v>
       </c>
       <c r="C32" t="n">
-        <v>0.45</v>
+        <v>42.65</v>
       </c>
       <c r="D32" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10.14</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4180</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Iron Riders</t>
-        </is>
+        <v>488</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.51</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3</v>
+        <v>47.42</v>
       </c>
       <c r="D33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.73</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4450</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Olympia Robotics Federation</t>
-        </is>
+        <v>4911</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.82</v>
       </c>
       <c r="C34" t="n">
-        <v>0.46</v>
+        <v>40.83</v>
       </c>
       <c r="D34" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="E34" t="n">
-        <v>13.72</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4469</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>R.A.I.D. (Raider Artificial Intelligence Division)</t>
-        </is>
+        <v>4915</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.36</v>
       </c>
       <c r="C35" t="n">
-        <v>0.49</v>
+        <v>37.23</v>
       </c>
       <c r="D35" t="n">
-        <v>24.16</v>
-      </c>
-      <c r="E35" t="n">
-        <v>15.87</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4488</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Shockwave</t>
-        </is>
+        <v>4918</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7</v>
       </c>
       <c r="C36" t="n">
-        <v>0.78</v>
+        <v>31.22</v>
       </c>
       <c r="D36" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="E36" t="n">
-        <v>11.12</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4682</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CyBears</t>
-        </is>
+        <v>492</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.42</v>
       </c>
       <c r="C37" t="n">
-        <v>0.59</v>
+        <v>46.02</v>
       </c>
       <c r="D37" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.16</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>488</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Team XBOT</t>
-        </is>
+        <v>5468</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.87</v>
       </c>
       <c r="C38" t="n">
-        <v>0.84</v>
+        <v>34.16</v>
       </c>
       <c r="D38" t="n">
-        <v>26.04</v>
-      </c>
-      <c r="E38" t="n">
-        <v>14.83</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>492</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Titan Robotics Club</t>
-        </is>
+        <v>5827</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.18</v>
       </c>
       <c r="C39" t="n">
-        <v>0.25</v>
+        <v>27.75</v>
       </c>
       <c r="D39" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="E39" t="n">
-        <v>13.97</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5827</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Code Purple</t>
-        </is>
+        <v>5920</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.84</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11</v>
+        <v>32.92</v>
       </c>
       <c r="D40" t="n">
-        <v>30.43</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7.23</v>
+        <v>19.56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6343</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Steel Ridge Robotics</t>
-        </is>
+        <v>6443</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.66</v>
       </c>
       <c r="C41" t="n">
-        <v>0.76</v>
+        <v>40.17</v>
       </c>
       <c r="D41" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9.6</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6443</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>AEMBOT</t>
-        </is>
+        <v>6831</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.71</v>
+        <v>25.58</v>
       </c>
       <c r="D42" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E42" t="n">
-        <v>16.11</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6831</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>A-05 Annex</t>
-        </is>
+        <v>7034</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.08</v>
       </c>
       <c r="C43" t="n">
-        <v>0.46</v>
+        <v>41.79</v>
       </c>
       <c r="D43" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8.619999999999999</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7034</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2B Determined</t>
-        </is>
+        <v>7461</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.63</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>52.89</v>
       </c>
       <c r="D44" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="E44" t="n">
-        <v>15.06</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8032</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Redshift</t>
-        </is>
+        <v>753</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.48</v>
       </c>
       <c r="C45" t="n">
-        <v>0.52</v>
+        <v>30.86</v>
       </c>
       <c r="D45" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="E45" t="n">
-        <v>15.29</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9023</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Future Martians</t>
-        </is>
+        <v>7627</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.79</v>
       </c>
       <c r="C46" t="n">
-        <v>0.61</v>
+        <v>50.71</v>
       </c>
       <c r="D46" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="E46" t="n">
-        <v>15.82</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9036</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Ramen Robotics</t>
-        </is>
+        <v>8532</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.06</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5600000000000001</v>
+        <v>36.81</v>
       </c>
       <c r="D47" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="E47" t="n">
-        <v>13.88</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9430</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CTEC Robotics</t>
-        </is>
+        <v>9036</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.45</v>
       </c>
       <c r="C48" t="n">
-        <v>0.26</v>
+        <v>27.43</v>
       </c>
       <c r="D48" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="E48" t="n">
-        <v>10.39</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9442</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Miso Mechanics</t>
-        </is>
+        <v>948</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8100000000000001</v>
+        <v>42.86</v>
       </c>
       <c r="D49" t="n">
-        <v>33.96</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9.539999999999999</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9446</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>C Cubed</t>
-        </is>
+        <v>955</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.36</v>
       </c>
       <c r="C50" t="n">
-        <v>0.63</v>
+        <v>49.77</v>
       </c>
       <c r="D50" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E50" t="n">
-        <v>13.09</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1294</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Pack of Parts</t>
-        </is>
+      <c r="B51" t="n">
+        <v>0.75</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07000000000000001</v>
+        <v>23.42</v>
       </c>
       <c r="D51" t="n">
-        <v>29.87</v>
-      </c>
-      <c r="E51" t="n">
-        <v>12.33</v>
+        <v>17.53</v>
       </c>
     </row>
   </sheetData>
